--- a/dev/plans/Gantt.xlsx
+++ b/dev/plans/Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{857308AE-9EED-486C-B76E-936CD08807D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E605D2F3-73FF-4C68-BB3D-E0E293A0048C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22935" yWindow="3255" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8220" yWindow="4755" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projektisuunnitelma" sheetId="1" r:id="rId1"/>
@@ -566,6 +566,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="8" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -575,9 +587,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="9" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="9" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -592,15 +601,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="8" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1012,8 +1012,8 @@
   </sheetPr>
   <dimension ref="B1:BO30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.25" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1052,68 +1052,68 @@
         <v>1</v>
       </c>
       <c r="J2" s="16"/>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="29"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="32"/>
       <c r="P2" s="17"/>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="29"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="32"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="23" t="s">
+      <c r="W2" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="X2" s="24"/>
-      <c r="Y2" s="24"/>
-      <c r="Z2" s="31"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="34"/>
       <c r="AA2" s="19"/>
-      <c r="AB2" s="23" t="s">
+      <c r="AB2" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="24"/>
-      <c r="AD2" s="24"/>
-      <c r="AE2" s="24"/>
-      <c r="AF2" s="24"/>
-      <c r="AG2" s="24"/>
-      <c r="AH2" s="24"/>
-      <c r="AI2" s="31"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="34"/>
       <c r="AJ2" s="20"/>
-      <c r="AK2" s="23" t="s">
+      <c r="AK2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="AL2" s="24"/>
-      <c r="AM2" s="24"/>
-      <c r="AN2" s="24"/>
-      <c r="AO2" s="24"/>
-      <c r="AP2" s="24"/>
-      <c r="AQ2" s="24"/>
-      <c r="AR2" s="24"/>
+      <c r="AL2" s="28"/>
+      <c r="AM2" s="28"/>
+      <c r="AN2" s="28"/>
+      <c r="AO2" s="28"/>
+      <c r="AP2" s="28"/>
+      <c r="AQ2" s="28"/>
+      <c r="AR2" s="28"/>
     </row>
     <row r="3" spans="2:67" s="12" customFormat="1" ht="39.950000000000003" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="25" t="s">
+      <c r="G3" s="29" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="21" t="s">
@@ -1140,7 +1140,7 @@
       <c r="AA3" s="11"/>
     </row>
     <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33"/>
+      <c r="B4" s="24"/>
       <c r="C4" s="26"/>
       <c r="D4" s="26"/>
       <c r="E4" s="26"/>
@@ -1357,7 +1357,9 @@
       <c r="D6" s="7">
         <v>35</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="8">
         <v>0</v>
@@ -1595,17 +1597,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="AK2:AR2"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="K2:O2"/>
     <mergeCell ref="Q2:U2"/>
     <mergeCell ref="W2:Z2"/>
     <mergeCell ref="AB2:AI2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO30">
     <cfRule type="expression" dxfId="9" priority="1">
